--- a/doc/TypeConversions.xlsx
+++ b/doc/TypeConversions.xlsx
@@ -167,7 +167,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.96484375" defaultRowHeight="30.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/TypeConversions.xlsx
+++ b/doc/TypeConversions.xlsx
@@ -59,11 +59,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,6 +80,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,6 +146,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,10 +177,10 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.96484375" defaultRowHeight="30.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.95703125" defaultRowHeight="30.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="16.94"/>
   </cols>
@@ -235,8 +245,8 @@
       <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -267,8 +277,8 @@
       <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -299,8 +309,8 @@
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>6</v>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -323,16 +333,16 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -351,7 +361,7 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -380,8 +390,8 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
+      <c r="E8" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
@@ -412,8 +422,8 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
+      <c r="E9" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>2</v>
@@ -444,8 +454,8 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>3</v>
@@ -468,16 +478,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -577,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
